--- a/data/Behavioral/description/SRS_Pre.xlsx
+++ b/data/Behavioral/description/SRS_Pre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="800" windowWidth="21180" windowHeight="18900" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="1920" windowWidth="21180" windowHeight="18900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,54 +191,6 @@
     <t>65. Stares or gazes off into space.</t>
   </si>
   <si>
-    <t>SRS_AWR</t>
-  </si>
-  <si>
-    <t>SRS_AWR_T</t>
-  </si>
-  <si>
-    <t>SRS_COG</t>
-  </si>
-  <si>
-    <t>SRS_COG_T</t>
-  </si>
-  <si>
-    <t>SRS_COM</t>
-  </si>
-  <si>
-    <t>SRS_COM_T</t>
-  </si>
-  <si>
-    <t>SRS_DSMRRB</t>
-  </si>
-  <si>
-    <t>SRS_DSMRRB_T</t>
-  </si>
-  <si>
-    <t>SRS_MOT</t>
-  </si>
-  <si>
-    <t>SRS_MOT_T</t>
-  </si>
-  <si>
-    <t>SRS_RRB</t>
-  </si>
-  <si>
-    <t>SRS_RRB_T</t>
-  </si>
-  <si>
-    <t>SRS_SCI</t>
-  </si>
-  <si>
-    <t>SRS_SCI_T</t>
-  </si>
-  <si>
-    <t>SRS_Total</t>
-  </si>
-  <si>
-    <t>SRS_Total_T</t>
-  </si>
-  <si>
     <t>Social Awareness Raw Score</t>
   </si>
   <si>
@@ -537,6 +489,54 @@
   </si>
   <si>
     <t>SRS_P_65</t>
+  </si>
+  <si>
+    <t>SRS_P_AWR</t>
+  </si>
+  <si>
+    <t>SRS_P_AWR_T</t>
+  </si>
+  <si>
+    <t>SRS_P_COG</t>
+  </si>
+  <si>
+    <t>SRS_P_COG_T</t>
+  </si>
+  <si>
+    <t>SRS_P_COM</t>
+  </si>
+  <si>
+    <t>SRS_P_COM_T</t>
+  </si>
+  <si>
+    <t>SRS_P_DSMRRB</t>
+  </si>
+  <si>
+    <t>SRS_P_DSMRRB_T</t>
+  </si>
+  <si>
+    <t>SRS_P_MOT</t>
+  </si>
+  <si>
+    <t>SRS_P_MOT_T</t>
+  </si>
+  <si>
+    <t>SRS_P_RRB</t>
+  </si>
+  <si>
+    <t>SRS_P_RRB_T</t>
+  </si>
+  <si>
+    <t>SRS_P_SCI</t>
+  </si>
+  <si>
+    <t>SRS_P_SCI_T</t>
+  </si>
+  <si>
+    <t>SRS_P_Total</t>
+  </si>
+  <si>
+    <t>SRS_P_Total_T</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F67" sqref="F3:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -1235,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1252,16 +1252,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,33 +1269,33 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1303,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1320,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,16 +1337,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,16 +1354,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,33 +1371,33 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,16 +1405,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1422,50 +1422,50 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1473,16 +1473,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1490,16 +1490,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1507,33 +1507,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1541,33 +1541,33 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,16 +1575,16 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,16 +1592,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,16 +1609,16 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1626,16 +1626,16 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1643,16 +1643,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,33 +1660,33 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1694,16 +1694,16 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,16 +1711,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1728,50 +1728,50 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1779,16 +1779,16 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1796,33 +1796,33 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,16 +1830,16 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1847,16 +1847,16 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1864,33 +1864,33 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1898,16 +1898,16 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,16 +1915,16 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1932,16 +1932,16 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1949,33 +1949,33 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1983,16 +1983,16 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,16 +2000,16 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2017,16 +2017,16 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2034,16 +2034,16 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,16 +2051,16 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2068,33 +2068,33 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2102,16 +2102,16 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,16 +2119,16 @@
         <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,33 +2136,33 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,50 +2170,50 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,16 +2221,16 @@
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2238,16 +2238,16 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2255,16 +2255,16 @@
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,16 +2272,16 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2289,16 +2289,16 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2306,16 +2306,16 @@
         <v>52</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2323,42 +2323,41 @@
         <v>53</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
       <c r="C69" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>4</v>
@@ -2366,10 +2365,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>4</v>
@@ -2377,10 +2376,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>4</v>
@@ -2388,10 +2387,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>4</v>
@@ -2399,10 +2398,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="9" t="s">
         <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>4</v>
@@ -2410,10 +2409,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="9" t="s">
         <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>4</v>
@@ -2421,10 +2420,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>4</v>
@@ -2432,10 +2431,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>4</v>
@@ -2443,10 +2442,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>4</v>
@@ -2454,10 +2453,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>4</v>
@@ -2465,10 +2464,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>4</v>
@@ -2476,10 +2475,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>4</v>
@@ -2487,10 +2486,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>4</v>
@@ -2498,10 +2497,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>4</v>
@@ -2509,10 +2508,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>4</v>
